--- a/documentos/Metproregistroclubguitarra.xlsx
+++ b/documentos/Metproregistroclubguitarra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samael Flores\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samael Flores\Desktop\ClasesGuitarraUCA\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2D8F75-CABA-4F8B-930B-7E05A7D2845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE768E9E-01D0-466A-848F-20B01BB76965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Identificador</t>
   </si>
@@ -127,9 +127,6 @@
     <t>celular</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>departamento</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>nombreFacultad</t>
   </si>
   <si>
-    <t>cadena</t>
-  </si>
-  <si>
     <t>Global</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>numeroDeTelefono</t>
   </si>
   <si>
-    <t xml:space="preserve">emailDelEstudiante </t>
-  </si>
-  <si>
     <t>facultadDeLaUni</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
   </si>
   <si>
     <t>numero de telefono: 0000-0000</t>
-  </si>
-  <si>
-    <t>E-mail: ludwing.flores1234@est.uca.edu.ni</t>
   </si>
   <si>
     <t xml:space="preserve">Facultad: Facultad de ciencia, tecnologia y ambiente </t>
@@ -736,26 +724,26 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:J1048574"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
@@ -768,7 +756,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -779,7 +767,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -819,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
@@ -827,9 +815,9 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -838,7 +826,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
@@ -846,7 +834,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
@@ -857,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
@@ -865,7 +853,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
@@ -876,7 +864,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -884,7 +872,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
@@ -895,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -903,7 +891,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
@@ -914,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -922,18 +910,18 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -941,7 +929,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
@@ -949,10 +937,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -960,26 +948,18 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>37</v>
-      </c>
+    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -990,7 +970,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1001,7 +981,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1012,7 +992,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1023,7 +1003,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1034,7 +1014,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1045,7 +1025,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1056,7 +1036,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1067,7 +1047,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="1048570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1048570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048570" s="1" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1048571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1048571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048571" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1048572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1048572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048572" s="1" t="s">
         <v>14</v>
       </c>
@@ -1091,12 +1071,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1048573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1048573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048573" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1048574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1048574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048574" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,30 +1102,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="137.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="137.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1156,106 +1136,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D19" s="7"/>
     </row>
   </sheetData>
@@ -1270,19 +1250,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -1290,13 +1270,13 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1306,109 +1286,106 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
     </row>
